--- a/Wave 5_React_Tracker_(Pandian).xlsx
+++ b/Wave 5_React_Tracker_(Pandian).xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hybrid\Sessions\Tracker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -50,29 +45,38 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Labels and Inbox Mails</t>
-  </si>
-  <si>
     <t>Static Project Layout</t>
   </si>
   <si>
     <t>Compose Mail</t>
   </si>
   <si>
-    <t>DD/MM/YYYY</t>
-  </si>
-  <si>
     <t>Name:</t>
   </si>
   <si>
     <t>Git URL:</t>
+  </si>
+  <si>
+    <t>Inbox Mails</t>
+  </si>
+  <si>
+    <t>Labels</t>
+  </si>
+  <si>
+    <t>23/08/2016</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,7 +224,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,21 +401,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
@@ -426,19 +430,19 @@
     <col min="11" max="11" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="30">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -452,32 +456,52 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H4" s="3"/>
     </row>
   </sheetData>

--- a/Wave 5_React_Tracker_(Pandian).xlsx
+++ b/Wave 5_React_Tracker_(Pandian).xlsx
@@ -51,12 +51,6 @@
     <t>Compose Mail</t>
   </si>
   <si>
-    <t>Name:</t>
-  </si>
-  <si>
-    <t>Git URL:</t>
-  </si>
-  <si>
     <t>Inbox Mails</t>
   </si>
   <si>
@@ -70,6 +64,12 @@
   </si>
   <si>
     <t>in progress</t>
+  </si>
+  <si>
+    <t>Name: Pandian</t>
+  </si>
+  <si>
+    <t>Git URL:https://github.com/Pandiyan927/react_gmail_assignment</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -412,7 +412,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -432,13 +432,13 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B2" s="6"/>
     </row>
@@ -459,10 +459,10 @@
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>6</v>
@@ -482,25 +482,25 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="H4" s="3"/>
     </row>

--- a/Wave 5_React_Tracker_(Pandian).xlsx
+++ b/Wave 5_React_Tracker_(Pandian).xlsx
@@ -401,7 +401,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -412,7 +412,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Wave 5_React_Tracker_(Pandian).xlsx
+++ b/Wave 5_React_Tracker_(Pandian).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>done</t>
-  </si>
-  <si>
-    <t>in progress</t>
   </si>
   <si>
     <t>Name: Pandian</t>
@@ -401,7 +398,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -411,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -432,13 +429,13 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6"/>
     </row>
@@ -500,7 +497,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3"/>
     </row>

--- a/Wave 5_React_Tracker_(Pandian).xlsx
+++ b/Wave 5_React_Tracker_(Pandian).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Git URL:https://github.com/Pandiyan927/react_gmail_assignment</t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -408,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -499,7 +502,12 @@
       <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Wave 5_React_Tracker_(Pandian).xlsx
+++ b/Wave 5_React_Tracker_(Pandian).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>in progress</t>
+  </si>
+  <si>
+    <t>24/08/2016</t>
+  </si>
+  <si>
+    <t>25/08/2016</t>
+  </si>
+  <si>
+    <t>not started</t>
   </si>
 </sst>
 </file>
@@ -401,7 +410,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -409,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -500,12 +509,70 @@
         <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Wave 5_React_Tracker_(Pandian).xlsx
+++ b/Wave 5_React_Tracker_(Pandian).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="23">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>not started</t>
+  </si>
+  <si>
+    <t>26/08/2016</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>27/08/2016</t>
   </si>
 </sst>
 </file>
@@ -418,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -431,12 +440,13 @@
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="42.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="51" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="31.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -517,6 +527,15 @@
       <c r="I4" t="s">
         <v>19</v>
       </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
@@ -546,6 +565,15 @@
       <c r="I5" t="s">
         <v>19</v>
       </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
@@ -574,6 +602,91 @@
       </c>
       <c r="I6" t="s">
         <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Wave 5_React_Tracker_(Pandian).xlsx
+++ b/Wave 5_React_Tracker_(Pandian).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="24">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>27/08/2016</t>
+  </si>
+  <si>
+    <t>29/08/2016</t>
   </si>
 </sst>
 </file>
@@ -427,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -689,6 +692,44 @@
         <v>19</v>
       </c>
     </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
